--- a/template.xlsx
+++ b/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ĐẠI HỌC QUỐC GIA HÀ NỘI</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PHÓ GIÁM ĐỐC</t>
-  </si>
-  <si>
-    <t>Đỗ Hoàng Kiên</t>
   </si>
   <si>
     <t>Lê Thị Phương Thoa</t>
@@ -1360,7 +1357,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1453,7 +1450,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1469,7 +1466,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1672,13 +1669,11 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="17"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
